--- a/123.xlsx
+++ b/123.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Бренд</t>
   </si>
@@ -29,19 +29,7 @@
     <t>Новое количество</t>
   </si>
   <si>
-    <t>Etude House</t>
-  </si>
-  <si>
-    <t>K00329296880</t>
-  </si>
-  <si>
-    <t>29296880</t>
-  </si>
-  <si>
-    <t>2003039668003</t>
-  </si>
-  <si>
-    <t>34234</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -92,10 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" borderId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" applyFill="1" borderId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -105,47 +92,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" descr="" name="pic0"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -167,26 +116,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>